--- a/Data/Excel/SchoolSchedule_HK3N2_20192020.xlsx
+++ b/Data/Excel/SchoolSchedule_HK3N2_20192020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HaAnhTU\Desktop\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HaAnhTU\Desktop\CĐTN\CDTN\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4286,7 +4286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4294,6 +4294,7 @@
     <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4577,7 +4578,7 @@
   <dimension ref="A1:L959"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4607,7 +4608,7 @@
       <c r="H1" s="1">
         <v>3</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="3">
         <v>43895</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -40890,5 +40891,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>